--- a/biology/Mycologie/Rouille_courbeuse_des_rameaux_du_pin/Rouille_courbeuse_des_rameaux_du_pin.xlsx
+++ b/biology/Mycologie/Rouille_courbeuse_des_rameaux_du_pin/Rouille_courbeuse_des_rameaux_du_pin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La rouille courbeuse du pin (ou des rameaux du pin) est une maladie cryptogamique provoquée par le champignon hétéroxène Melampsora pinitorqua[1].
+La rouille courbeuse du pin (ou des rameaux du pin) est une maladie cryptogamique provoquée par le champignon hétéroxène Melampsora pinitorqua.
 Cette rouille a pour cible différentes espèces de pins (pin sylvestre, pin maritime, pin à crochets, pin laricio, pin d'Alep) et de peupliers (peuplier blanc, tremble). L'attaque se situe sur les pousses terminales et les feuilles.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infection des pousses de pin a lieu au printemps par l'intermédiaire des basidiospores issues des feuilles de peuplier. Le mycélium se développe à l'intérieur de l'hôte.
 En mai-juin, apparaissent sur le rameau de petits coussinets (les écidies) qui libèrent les spores (les écidiospores) qui vont coloniser les feuilles de peuplier.
@@ -547,7 +561,9 @@
           <t>Symptômes et éléments de diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur pins :
 au printemps : l'écorce prend une coloration jaunâtre (taches de 1 à 3 cm) dans la partie médiane des jeunes pousses). Sur ces taches, apparaissent des petits coussinets orangés (écidies).
@@ -581,7 +597,9 @@
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les spores infestent l'assise cambiale des jeunes pousses de pin. Il en résulte un ralentissement de la croissance du côté de l'infection ce qui occasionne une courbure. Puis, la pousse se redressant, elle forme un « S » caractéristique.
 Développement ralenti des pousses de pin, parfois dessèchement.
@@ -614,7 +632,9 @@
           <t>Lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pas planter de tremble près d'une plantation de pin. Éliminer les éventuels semis spontanés de peuplier. En cas de présence de tremble non supprimable, planter du Pinus taeda ou pin noir d'Autriche qui sont résistants à ce champignon.
 </t>
@@ -645,7 +665,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Courbures occasionnées par un lépidoptère : Rhyacionia buoliana, la tordeuse des pousses du pin. Dans ce cas, elles débutent à la base de la pousse qui est le plus souvent minée et de nombreux bourgeons sont évidés.
 Nécroses dues à Sphaeropsis sapinea.</t>
